--- a/APP_PERSONAS/src/test/resources/datadriven/administrarfacturas/ConsultaDetalleFactura.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/administrarfacturas/ConsultaDetalleFactura.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\administrarfacturas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\administrarfacturas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC96E3-FB87-4259-BF4A-0D8789EF9D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -263,7 +264,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,17 +536,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -636,7 +638,7 @@
         <v>43</v>
       </c>
       <c r="N2" s="3">
-        <v>63337</v>
+        <v>65468</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>42</v>
@@ -683,7 +685,7 @@
         <v>43</v>
       </c>
       <c r="N3" s="3">
-        <v>63337</v>
+        <v>65468</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>42</v>
@@ -696,19 +698,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
